--- a/Code/Results/Cases/Case_4_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.502158817311397</v>
+        <v>1.320058704838459</v>
       </c>
       <c r="C2">
-        <v>0.9293285111742478</v>
+        <v>0.3004919998410571</v>
       </c>
       <c r="D2">
-        <v>0.5621779347092115</v>
+        <v>0.6481261315988718</v>
       </c>
       <c r="E2">
-        <v>0.2515705398003973</v>
+        <v>0.2646925025571107</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3528690842348254</v>
+        <v>0.5743891366149256</v>
       </c>
       <c r="H2">
-        <v>0.2730683193739338</v>
+        <v>0.7011943039804009</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1494751619228722</v>
+        <v>0.138051621387568</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.269738021512296</v>
+        <v>2.528277394862727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.045025403929458</v>
+        <v>1.176917813548187</v>
       </c>
       <c r="C3">
-        <v>0.8126812976751694</v>
+        <v>0.262335176208353</v>
       </c>
       <c r="D3">
-        <v>0.5056460182997569</v>
+        <v>0.6374256006386076</v>
       </c>
       <c r="E3">
-        <v>0.2250000731661856</v>
+        <v>0.2594462408059854</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.332407883479533</v>
+        <v>0.5786935525712096</v>
       </c>
       <c r="H3">
-        <v>0.2720285959794708</v>
+        <v>0.7087774914066571</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1327292197713277</v>
+        <v>0.1345776010357795</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.223677592280325</v>
+        <v>2.552918075980159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.764871006642693</v>
+        <v>1.088880517327368</v>
       </c>
       <c r="C4">
-        <v>0.7411131492225707</v>
+        <v>0.238812927187297</v>
       </c>
       <c r="D4">
-        <v>0.4716663193649993</v>
+        <v>0.6311935226437413</v>
       </c>
       <c r="E4">
-        <v>0.2090213899417535</v>
+        <v>0.2563693357720567</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3214019917960229</v>
+        <v>0.5819458169097018</v>
       </c>
       <c r="H4">
-        <v>0.2723059175365208</v>
+        <v>0.7139030765612517</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1226528718731288</v>
+        <v>0.1325241615265185</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.200602417266452</v>
+        <v>2.570309741029774</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.650791175977247</v>
+        <v>1.052969376192152</v>
       </c>
       <c r="C5">
-        <v>0.7119517209331434</v>
+        <v>0.2292044505356614</v>
       </c>
       <c r="D5">
-        <v>0.4579881464597122</v>
+        <v>0.6287389494842159</v>
       </c>
       <c r="E5">
-        <v>0.2025870591147481</v>
+        <v>0.2551517544532445</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3172818982260424</v>
+        <v>0.5834237930548554</v>
       </c>
       <c r="H5">
-        <v>0.2726371206271665</v>
+        <v>0.7161096957901592</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1185936080196015</v>
+        <v>0.1317073660583503</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.192426280696338</v>
+        <v>2.577964295056617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.63185214651844</v>
+        <v>1.047004291507847</v>
       </c>
       <c r="C6">
-        <v>0.7071093929858705</v>
+        <v>0.2276076014078967</v>
       </c>
       <c r="D6">
-        <v>0.4557266714648733</v>
+        <v>0.6283365072840184</v>
       </c>
       <c r="E6">
-        <v>0.2015230958433136</v>
+        <v>0.2549517671609109</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3166190463893273</v>
+        <v>0.5836784129486929</v>
       </c>
       <c r="H6">
-        <v>0.2727049550515233</v>
+        <v>0.716483219745939</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.117922270035379</v>
+        <v>0.1315729449220271</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.191140451289314</v>
+        <v>2.579269546979759</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.763332200509637</v>
+        <v>1.088396347031903</v>
       </c>
       <c r="C7">
-        <v>0.7407198682287799</v>
+        <v>0.2386834360842727</v>
       </c>
       <c r="D7">
-        <v>0.4714811863387354</v>
+        <v>0.6311600750040043</v>
       </c>
       <c r="E7">
-        <v>0.208934311403894</v>
+        <v>0.2563527681479059</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3213449835188982</v>
+        <v>0.5819651320899482</v>
       </c>
       <c r="H7">
-        <v>0.272309516253344</v>
+        <v>0.7139323586257049</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1225979433351441</v>
+        <v>0.1325130649976884</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.200487287078516</v>
+        <v>2.570410678057257</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.344400118269448</v>
+        <v>1.270735658752301</v>
       </c>
       <c r="C8">
-        <v>0.8890908978700338</v>
+        <v>0.2873553535975191</v>
       </c>
       <c r="D8">
-        <v>0.5425246408748876</v>
+        <v>0.6443664322873133</v>
       </c>
       <c r="E8">
-        <v>0.2423348273778743</v>
+        <v>0.2628536302567142</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3454742613817245</v>
+        <v>0.5757464879404353</v>
       </c>
       <c r="H8">
-        <v>0.2725122793698915</v>
+        <v>0.7037114554139663</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1436554726030508</v>
+        <v>0.1368372374033342</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.252725041961213</v>
+        <v>2.536303059503609</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.490421776458504</v>
+        <v>1.627055317918007</v>
       </c>
       <c r="C9">
-        <v>1.1809946402322</v>
+        <v>0.3820341702927976</v>
       </c>
       <c r="D9">
-        <v>0.6883744603398725</v>
+        <v>0.6729474358068899</v>
       </c>
       <c r="E9">
-        <v>0.3108529468554977</v>
+        <v>0.2767483336182792</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4064373278812781</v>
+        <v>0.5684127272811139</v>
       </c>
       <c r="H9">
-        <v>0.2807576755336925</v>
+        <v>0.687400356347041</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1868160721111067</v>
+        <v>0.145950416553525</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.400422709292059</v>
+        <v>2.48743802183526</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.340050502884992</v>
+        <v>1.888014564201171</v>
       </c>
       <c r="C10">
-        <v>1.39684881452439</v>
+        <v>0.451104359689964</v>
       </c>
       <c r="D10">
-        <v>0.8006219501147882</v>
+        <v>0.6955861255478339</v>
       </c>
       <c r="E10">
-        <v>0.3635734500720531</v>
+        <v>0.2876591857765121</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4614756141981644</v>
+        <v>0.5660248826096961</v>
       </c>
       <c r="H10">
-        <v>0.2924711858961189</v>
+        <v>0.6777015531122146</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2200195023958287</v>
+        <v>0.1530353512828526</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.542445243380257</v>
+        <v>2.462621520224701</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.729130382435415</v>
+        <v>2.006539292993125</v>
       </c>
       <c r="C11">
-        <v>1.495550889061917</v>
+        <v>0.4824154037028165</v>
       </c>
       <c r="D11">
-        <v>0.8530627177591725</v>
+        <v>0.7062423817162369</v>
       </c>
       <c r="E11">
-        <v>0.3882061967442567</v>
+        <v>0.2927761847345138</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4892091874330617</v>
+        <v>0.565598032576375</v>
       </c>
       <c r="H11">
-        <v>0.2992403043692065</v>
+        <v>0.6737876086447727</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2355359736851454</v>
+        <v>0.1563438134191983</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.615771976515049</v>
+        <v>2.453760236087703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.876916991672488</v>
+        <v>2.051393055086066</v>
       </c>
       <c r="C12">
-        <v>1.533018196622436</v>
+        <v>0.4942558603582938</v>
       </c>
       <c r="D12">
-        <v>0.8731436196834466</v>
+        <v>0.7103291102112053</v>
       </c>
       <c r="E12">
-        <v>0.3976394799360676</v>
+        <v>0.2947359848193543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5001419821280564</v>
+        <v>0.5655318480849161</v>
       </c>
       <c r="H12">
-        <v>0.3020302458367183</v>
+        <v>0.672377301874036</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2414788805783985</v>
+        <v>0.1576089790116697</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.644924999750259</v>
+        <v>2.450755543825153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.845067118233089</v>
+        <v>2.041734316891507</v>
       </c>
       <c r="C13">
-        <v>1.524944593858891</v>
+        <v>0.4917065436152939</v>
       </c>
       <c r="D13">
-        <v>0.8688085194147277</v>
+        <v>0.709446672738693</v>
       </c>
       <c r="E13">
-        <v>0.3956029641858478</v>
+        <v>0.2943129234714874</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4977675287651806</v>
+        <v>0.5655418466473634</v>
       </c>
       <c r="H13">
-        <v>0.3014189741082589</v>
+        <v>0.6726778393998245</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2401958487151319</v>
+        <v>0.1573359544324262</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.638582515186044</v>
+        <v>2.45138702441281</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.74127936474423</v>
+        <v>2.010230031720141</v>
       </c>
       <c r="C14">
-        <v>1.498631415758609</v>
+        <v>0.4833898566017751</v>
       </c>
       <c r="D14">
-        <v>0.8547101740190044</v>
+        <v>0.7065775685704807</v>
       </c>
       <c r="E14">
-        <v>0.3889800940278363</v>
+        <v>0.2929369755803819</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4900997435696866</v>
+        <v>0.5655906708600611</v>
       </c>
       <c r="H14">
-        <v>0.299465174914431</v>
+        <v>0.6736701413828996</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2360235064131331</v>
+        <v>0.1564476522168263</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.618141842791971</v>
+        <v>2.453505995941867</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.677767525484001</v>
+        <v>1.990928911508263</v>
       </c>
       <c r="C15">
-        <v>1.482526238941375</v>
+        <v>0.4782934969366579</v>
       </c>
       <c r="D15">
-        <v>0.8461042986479299</v>
+        <v>0.7048268574002918</v>
       </c>
       <c r="E15">
-        <v>0.3849374935576506</v>
+        <v>0.2920970468135451</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4854604328156853</v>
+        <v>0.5656330268896284</v>
       </c>
       <c r="H15">
-        <v>0.2982985370882716</v>
+        <v>0.6742873137338989</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.233476819033811</v>
+        <v>0.155905147131719</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.605805924556023</v>
+        <v>2.454849674798055</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.314681760153462</v>
+        <v>1.880264752639107</v>
       </c>
       <c r="C16">
-        <v>1.39041012534426</v>
+        <v>0.4490558548561694</v>
       </c>
       <c r="D16">
-        <v>0.7972246083624555</v>
+        <v>0.6948969126462714</v>
       </c>
       <c r="E16">
-        <v>0.3619777163001956</v>
+        <v>0.2873278700314259</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4597210043546482</v>
+        <v>0.5660661011879995</v>
       </c>
       <c r="H16">
-        <v>0.2920594215728727</v>
+        <v>0.6779673780334861</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2190144152658888</v>
+        <v>0.1528208582837891</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.537839645361601</v>
+        <v>2.463249631305445</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.092655420585118</v>
+        <v>1.812326492997158</v>
       </c>
       <c r="C17">
-        <v>1.334042356491125</v>
+        <v>0.4310910517034472</v>
       </c>
       <c r="D17">
-        <v>0.7676083678870214</v>
+        <v>0.6888968431438798</v>
       </c>
       <c r="E17">
-        <v>0.3480672570147831</v>
+        <v>0.2844414861010733</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4446506987389256</v>
+        <v>0.5665011162663802</v>
       </c>
       <c r="H17">
-        <v>0.2886142135510426</v>
+        <v>0.6803526892155247</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2102531353220058</v>
+        <v>0.1509506637975733</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.498468146968833</v>
+        <v>2.469025819868222</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.965189354295148</v>
+        <v>1.773232730717382</v>
       </c>
       <c r="C18">
-        <v>1.301667847387989</v>
+        <v>0.4207479186234195</v>
       </c>
       <c r="D18">
-        <v>0.7507020830013573</v>
+        <v>0.6854794408133387</v>
       </c>
       <c r="E18">
-        <v>0.340126726739868</v>
+        <v>0.2827957707157225</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4362336679812699</v>
+        <v>0.5668133527012316</v>
       </c>
       <c r="H18">
-        <v>0.2867669526407468</v>
+        <v>0.6817715280370322</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2052521500076665</v>
+        <v>0.1498830223158478</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.476634915463876</v>
+        <v>2.47257654796644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.922070037873198</v>
+        <v>1.759993318084355</v>
       </c>
       <c r="C19">
-        <v>1.290713907712984</v>
+        <v>0.4172441699210481</v>
       </c>
       <c r="D19">
-        <v>0.7449992130129885</v>
+        <v>0.6843281520071969</v>
       </c>
       <c r="E19">
-        <v>0.3374482266796903</v>
+        <v>0.2822410421560662</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4334256692131646</v>
+        <v>0.5669297044899935</v>
       </c>
       <c r="H19">
-        <v>0.2861640078818368</v>
+        <v>0.6822599666955824</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2035652463533211</v>
+        <v>0.1495229180859212</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.469378225934861</v>
+        <v>2.4738179407492</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.116265358334317</v>
+        <v>1.819560460321952</v>
       </c>
       <c r="C20">
-        <v>1.340037840700404</v>
+        <v>0.4330045014868915</v>
       </c>
       <c r="D20">
-        <v>0.7707476295620381</v>
+        <v>0.6895320752620648</v>
       </c>
       <c r="E20">
-        <v>0.349541715142216</v>
+        <v>0.2847472503077029</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4462286806987663</v>
+        <v>0.5664483839773453</v>
       </c>
       <c r="H20">
-        <v>0.2889669234436099</v>
+        <v>0.6800939163934459</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2111817726746494</v>
+        <v>0.1511489163630273</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.50257433091727</v>
+        <v>2.468387281649512</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.771751446240955</v>
+        <v>2.019484407047003</v>
       </c>
       <c r="C21">
-        <v>1.506357614725232</v>
+        <v>0.485833118089829</v>
       </c>
       <c r="D21">
-        <v>0.8588449493284713</v>
+        <v>0.7074188981868303</v>
       </c>
       <c r="E21">
-        <v>0.3909224304974543</v>
+        <v>0.2933405248086913</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4923399076430286</v>
+        <v>0.5655737343492291</v>
       </c>
       <c r="H21">
-        <v>0.3000327387562436</v>
+        <v>0.6733767275373168</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2372471352478414</v>
+        <v>0.1567082334368877</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.624107044504569</v>
+        <v>2.452874065740247</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.202817763347355</v>
+        <v>2.149976390571794</v>
       </c>
       <c r="C22">
-        <v>1.615596980645194</v>
+        <v>0.5202640486709811</v>
       </c>
       <c r="D22">
-        <v>0.9177328203052468</v>
+        <v>0.7194087703644527</v>
       </c>
       <c r="E22">
-        <v>0.4185878053714589</v>
+        <v>0.2990855714625482</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5250094449638851</v>
+        <v>0.5655587750765676</v>
       </c>
       <c r="H22">
-        <v>0.3085961526109031</v>
+        <v>0.6694053631666748</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2546780067549292</v>
+        <v>0.160413409090097</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.711683027246522</v>
+        <v>2.444781316817995</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.972477149306769</v>
+        <v>2.080346592228238</v>
       </c>
       <c r="C23">
-        <v>1.557238153918263</v>
+        <v>0.5018965699233036</v>
       </c>
       <c r="D23">
-        <v>0.8861746125381273</v>
+        <v>0.7129821231791595</v>
       </c>
       <c r="E23">
-        <v>0.4037612443118448</v>
+        <v>0.2960075369952122</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5073260944637923</v>
+        <v>0.5655156139336981</v>
       </c>
       <c r="H23">
-        <v>0.3038969878727755</v>
+        <v>0.6714865790688265</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2453358129329501</v>
+        <v>0.1584293038580569</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.664149881114867</v>
+        <v>2.448912775965084</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.105590751259967</v>
+        <v>1.816290093033103</v>
       </c>
       <c r="C24">
-        <v>1.337327183715558</v>
+        <v>0.4321394772967437</v>
       </c>
       <c r="D24">
-        <v>0.7693279958921551</v>
+        <v>0.6892447867793123</v>
       </c>
       <c r="E24">
-        <v>0.3488749366608772</v>
+        <v>0.2846089716225961</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4455145086296284</v>
+        <v>0.566472030726743</v>
       </c>
       <c r="H24">
-        <v>0.2888070491315062</v>
+        <v>0.6802107596625149</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2107618242111187</v>
+        <v>0.151059262838757</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.500715437030721</v>
+        <v>2.468675248707314</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.179333030474197</v>
+        <v>1.530802123718274</v>
       </c>
       <c r="C25">
-        <v>1.101845720271967</v>
+        <v>0.3565055272806035</v>
       </c>
       <c r="D25">
-        <v>0.6481096514284275</v>
+        <v>0.6649277972228447</v>
       </c>
       <c r="E25">
-        <v>0.2919406499320019</v>
+        <v>0.2728663491572334</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3882942185528719</v>
+        <v>0.569872486040822</v>
       </c>
       <c r="H25">
-        <v>0.2776011040449333</v>
+        <v>0.6914123865399375</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1749052146379597</v>
+        <v>0.1434169020715146</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.355038330017862</v>
+        <v>2.498717892768212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.320058704838459</v>
+        <v>3.50215881731134</v>
       </c>
       <c r="C2">
-        <v>0.3004919998410571</v>
+        <v>0.9293285111744183</v>
       </c>
       <c r="D2">
-        <v>0.6481261315988718</v>
+        <v>0.5621779347092115</v>
       </c>
       <c r="E2">
-        <v>0.2646925025571107</v>
+        <v>0.2515705398003902</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5743891366149256</v>
+        <v>0.3528690842346975</v>
       </c>
       <c r="H2">
-        <v>0.7011943039804009</v>
+        <v>0.2730683193739196</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.138051621387568</v>
+        <v>0.1494751619230357</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.528277394862727</v>
+        <v>1.269738021512268</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.176917813548187</v>
+        <v>3.045025403929458</v>
       </c>
       <c r="C3">
-        <v>0.262335176208353</v>
+        <v>0.8126812976751978</v>
       </c>
       <c r="D3">
-        <v>0.6374256006386076</v>
+        <v>0.5056460182998421</v>
       </c>
       <c r="E3">
-        <v>0.2594462408059854</v>
+        <v>0.2250000731662354</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5786935525712096</v>
+        <v>0.3324078834795969</v>
       </c>
       <c r="H3">
-        <v>0.7087774914066571</v>
+        <v>0.2720285959794566</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1345776010357795</v>
+        <v>0.1327292197712637</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.552918075980159</v>
+        <v>1.223677592280239</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.088880517327368</v>
+        <v>2.764871006642522</v>
       </c>
       <c r="C4">
-        <v>0.238812927187297</v>
+        <v>0.7411131492226275</v>
       </c>
       <c r="D4">
-        <v>0.6311935226437413</v>
+        <v>0.4716663193650277</v>
       </c>
       <c r="E4">
-        <v>0.2563693357720567</v>
+        <v>0.2090213899417463</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5819458169097018</v>
+        <v>0.3214019917960229</v>
       </c>
       <c r="H4">
-        <v>0.7139030765612517</v>
+        <v>0.2723059175365208</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1325241615265185</v>
+        <v>0.1226528718732425</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.570309741029774</v>
+        <v>1.200602417266538</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.052969376192152</v>
+        <v>2.650791175977076</v>
       </c>
       <c r="C5">
-        <v>0.2292044505356614</v>
+        <v>0.711951720932916</v>
       </c>
       <c r="D5">
-        <v>0.6287389494842159</v>
+        <v>0.4579881464599396</v>
       </c>
       <c r="E5">
-        <v>0.2551517544532445</v>
+        <v>0.2025870591147623</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5834237930548554</v>
+        <v>0.3172818982261134</v>
       </c>
       <c r="H5">
-        <v>0.7161096957901592</v>
+        <v>0.2726371206271665</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1317073660583503</v>
+        <v>0.1185936080196015</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.577964295056617</v>
+        <v>1.192426280696424</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.047004291507847</v>
+        <v>2.631852146518384</v>
       </c>
       <c r="C6">
-        <v>0.2276076014078967</v>
+        <v>0.7071093929859273</v>
       </c>
       <c r="D6">
-        <v>0.6283365072840184</v>
+        <v>0.4557266714648733</v>
       </c>
       <c r="E6">
-        <v>0.2549517671609109</v>
+        <v>0.2015230958433207</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5836784129486929</v>
+        <v>0.3166190463893344</v>
       </c>
       <c r="H6">
-        <v>0.716483219745939</v>
+        <v>0.2727049550515162</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1315729449220271</v>
+        <v>0.1179222700352227</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.579269546979759</v>
+        <v>1.191140451289286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.088396347031903</v>
+        <v>2.763332200509637</v>
       </c>
       <c r="C7">
-        <v>0.2386834360842727</v>
+        <v>0.7407198682287515</v>
       </c>
       <c r="D7">
-        <v>0.6311600750040043</v>
+        <v>0.4714811863385933</v>
       </c>
       <c r="E7">
-        <v>0.2563527681479059</v>
+        <v>0.2089343114038869</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5819651320899482</v>
+        <v>0.3213449835188769</v>
       </c>
       <c r="H7">
-        <v>0.7139323586257049</v>
+        <v>0.272309516253344</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1325130649976884</v>
+        <v>0.1225979433351299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.570410678057257</v>
+        <v>1.200487287078644</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.270735658752301</v>
+        <v>3.344400118269164</v>
       </c>
       <c r="C8">
-        <v>0.2873553535975191</v>
+        <v>0.8890908978704033</v>
       </c>
       <c r="D8">
-        <v>0.6443664322873133</v>
+        <v>0.5425246408751718</v>
       </c>
       <c r="E8">
-        <v>0.2628536302567142</v>
+        <v>0.2423348273778814</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5757464879404353</v>
+        <v>0.3454742613817672</v>
       </c>
       <c r="H8">
-        <v>0.7037114554139663</v>
+        <v>0.2725122793698063</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1368372374033342</v>
+        <v>0.1436554726030224</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.536303059503609</v>
+        <v>1.25272504196127</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.627055317918007</v>
+        <v>4.490421776458277</v>
       </c>
       <c r="C9">
-        <v>0.3820341702927976</v>
+        <v>1.180994640231972</v>
       </c>
       <c r="D9">
-        <v>0.6729474358068899</v>
+        <v>0.6883744603401283</v>
       </c>
       <c r="E9">
-        <v>0.2767483336182792</v>
+        <v>0.3108529468555119</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5684127272811139</v>
+        <v>0.4064373278812354</v>
       </c>
       <c r="H9">
-        <v>0.687400356347041</v>
+        <v>0.2807576755336783</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.145950416553525</v>
+        <v>0.1868160721112204</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.48743802183526</v>
+        <v>1.400422709291973</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.888014564201171</v>
+        <v>5.340050502885163</v>
       </c>
       <c r="C10">
-        <v>0.451104359689964</v>
+        <v>1.396848814524503</v>
       </c>
       <c r="D10">
-        <v>0.6955861255478339</v>
+        <v>0.8006219501149019</v>
       </c>
       <c r="E10">
-        <v>0.2876591857765121</v>
+        <v>0.3635734500720389</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5660248826096961</v>
+        <v>0.461475614198207</v>
       </c>
       <c r="H10">
-        <v>0.6777015531122146</v>
+        <v>0.2924711858961189</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1530353512828526</v>
+        <v>0.2200195023957434</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.462621520224701</v>
+        <v>1.5424452433802</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.006539292993125</v>
+        <v>5.729130382435528</v>
       </c>
       <c r="C11">
-        <v>0.4824154037028165</v>
+        <v>1.495550889061292</v>
       </c>
       <c r="D11">
-        <v>0.7062423817162369</v>
+        <v>0.8530627177591441</v>
       </c>
       <c r="E11">
-        <v>0.2927761847345138</v>
+        <v>0.3882061967442638</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.565598032576375</v>
+        <v>0.4892091874330902</v>
       </c>
       <c r="H11">
-        <v>0.6737876086447727</v>
+        <v>0.2992403043692065</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1563438134191983</v>
+        <v>0.2355359736852449</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.453760236087703</v>
+        <v>1.615771976514992</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.051393055086066</v>
+        <v>5.876916991672488</v>
       </c>
       <c r="C12">
-        <v>0.4942558603582938</v>
+        <v>1.533018196622379</v>
       </c>
       <c r="D12">
-        <v>0.7103291102112053</v>
+        <v>0.8731436196835318</v>
       </c>
       <c r="E12">
-        <v>0.2947359848193543</v>
+        <v>0.3976394799360463</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5655318480849161</v>
+        <v>0.5001419821280564</v>
       </c>
       <c r="H12">
-        <v>0.672377301874036</v>
+        <v>0.3020302458367183</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1576089790116697</v>
+        <v>0.2414788805784553</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.450755543825153</v>
+        <v>1.644924999750259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.041734316891507</v>
+        <v>5.845067118233317</v>
       </c>
       <c r="C13">
-        <v>0.4917065436152939</v>
+        <v>1.524944593859118</v>
       </c>
       <c r="D13">
-        <v>0.709446672738693</v>
+        <v>0.8688085194146709</v>
       </c>
       <c r="E13">
-        <v>0.2943129234714874</v>
+        <v>0.395602964185862</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5655418466473634</v>
+        <v>0.4977675287651948</v>
       </c>
       <c r="H13">
-        <v>0.6726778393998245</v>
+        <v>0.3014189741081452</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1573359544324262</v>
+        <v>0.2401958487151177</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.45138702441281</v>
+        <v>1.638582515186073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.010230031720141</v>
+        <v>5.741279364744344</v>
       </c>
       <c r="C14">
-        <v>0.4833898566017751</v>
+        <v>1.498631415758325</v>
       </c>
       <c r="D14">
-        <v>0.7065775685704807</v>
+        <v>0.854710174018976</v>
       </c>
       <c r="E14">
-        <v>0.2929369755803819</v>
+        <v>0.3889800940278434</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5655906708600611</v>
+        <v>0.490099743569715</v>
       </c>
       <c r="H14">
-        <v>0.6736701413828996</v>
+        <v>0.2994651749143173</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1564476522168263</v>
+        <v>0.2360235064131331</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.453505995941867</v>
+        <v>1.618141842791971</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.990928911508263</v>
+        <v>5.677767525484228</v>
       </c>
       <c r="C15">
-        <v>0.4782934969366579</v>
+        <v>1.482526238941432</v>
       </c>
       <c r="D15">
-        <v>0.7048268574002918</v>
+        <v>0.8461042986480436</v>
       </c>
       <c r="E15">
-        <v>0.2920970468135451</v>
+        <v>0.3849374935576577</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5656330268896284</v>
+        <v>0.4854604328156142</v>
       </c>
       <c r="H15">
-        <v>0.6742873137338989</v>
+        <v>0.2982985370882858</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.155905147131719</v>
+        <v>0.2334768190337968</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.454849674798055</v>
+        <v>1.605805924555995</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.880264752639107</v>
+        <v>5.314681760153462</v>
       </c>
       <c r="C16">
-        <v>0.4490558548561694</v>
+        <v>1.390410125344602</v>
       </c>
       <c r="D16">
-        <v>0.6948969126462714</v>
+        <v>0.7972246083625407</v>
       </c>
       <c r="E16">
-        <v>0.2873278700314259</v>
+        <v>0.3619777163001956</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5660661011879995</v>
+        <v>0.4597210043546767</v>
       </c>
       <c r="H16">
-        <v>0.6779673780334861</v>
+        <v>0.2920594215728727</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1528208582837891</v>
+        <v>0.2190144152659457</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.463249631305445</v>
+        <v>1.537839645361544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.812326492997158</v>
+        <v>5.092655420585061</v>
       </c>
       <c r="C17">
-        <v>0.4310910517034472</v>
+        <v>1.334042356490784</v>
       </c>
       <c r="D17">
-        <v>0.6888968431438798</v>
+        <v>0.7676083678870214</v>
       </c>
       <c r="E17">
-        <v>0.2844414861010733</v>
+        <v>0.3480672570147831</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5665011162663802</v>
+        <v>0.4446506987388972</v>
       </c>
       <c r="H17">
-        <v>0.6803526892155247</v>
+        <v>0.2886142135510283</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1509506637975733</v>
+        <v>0.2102531353219916</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.469025819868222</v>
+        <v>1.498468146968747</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.773232730717382</v>
+        <v>4.965189354295148</v>
       </c>
       <c r="C18">
-        <v>0.4207479186234195</v>
+        <v>1.301667847387932</v>
       </c>
       <c r="D18">
-        <v>0.6854794408133387</v>
+        <v>0.7507020830013005</v>
       </c>
       <c r="E18">
-        <v>0.2827957707157225</v>
+        <v>0.3401267267398538</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5668133527012316</v>
+        <v>0.4362336679812557</v>
       </c>
       <c r="H18">
-        <v>0.6817715280370322</v>
+        <v>0.2867669526407468</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1498830223158478</v>
+        <v>0.2052521500076523</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.47257654796644</v>
+        <v>1.476634915463933</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.759993318084355</v>
+        <v>4.922070037873539</v>
       </c>
       <c r="C19">
-        <v>0.4172441699210481</v>
+        <v>1.290713907713268</v>
       </c>
       <c r="D19">
-        <v>0.6843281520071969</v>
+        <v>0.7449992130129033</v>
       </c>
       <c r="E19">
-        <v>0.2822410421560662</v>
+        <v>0.3374482266796761</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5669297044899935</v>
+        <v>0.4334256692131078</v>
       </c>
       <c r="H19">
-        <v>0.6822599666955824</v>
+        <v>0.2861640078817231</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1495229180859212</v>
+        <v>0.2035652463533353</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.4738179407492</v>
+        <v>1.469378225934889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.819560460321952</v>
+        <v>5.116265358334374</v>
       </c>
       <c r="C20">
-        <v>0.4330045014868915</v>
+        <v>1.340037840700347</v>
       </c>
       <c r="D20">
-        <v>0.6895320752620648</v>
+        <v>0.7707476295622939</v>
       </c>
       <c r="E20">
-        <v>0.2847472503077029</v>
+        <v>0.3495417151422018</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5664483839773453</v>
+        <v>0.4462286806988232</v>
       </c>
       <c r="H20">
-        <v>0.6800939163934459</v>
+        <v>0.288966923443752</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1511489163630273</v>
+        <v>0.2111817726746921</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.468387281649512</v>
+        <v>1.502574330917327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.019484407047003</v>
+        <v>5.771751446240955</v>
       </c>
       <c r="C21">
-        <v>0.485833118089829</v>
+        <v>1.506357614725118</v>
       </c>
       <c r="D21">
-        <v>0.7074188981868303</v>
+        <v>0.8588449493286703</v>
       </c>
       <c r="E21">
-        <v>0.2933405248086913</v>
+        <v>0.3909224304974543</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5655737343492291</v>
+        <v>0.4923399076431139</v>
       </c>
       <c r="H21">
-        <v>0.6733767275373168</v>
+        <v>0.3000327387562436</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1567082334368877</v>
+        <v>0.2372471352480119</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.452874065740247</v>
+        <v>1.624107044504598</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.149976390571794</v>
+        <v>6.202817763347412</v>
       </c>
       <c r="C22">
-        <v>0.5202640486709811</v>
+        <v>1.615596980645648</v>
       </c>
       <c r="D22">
-        <v>0.7194087703644527</v>
+        <v>0.9177328203052184</v>
       </c>
       <c r="E22">
-        <v>0.2990855714625482</v>
+        <v>0.4185878053714518</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5655587750765676</v>
+        <v>0.5250094449639136</v>
       </c>
       <c r="H22">
-        <v>0.6694053631666748</v>
+        <v>0.3085961526108179</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.160413409090097</v>
+        <v>0.254678006754915</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.444781316817995</v>
+        <v>1.711683027246465</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.080346592228238</v>
+        <v>5.972477149306656</v>
       </c>
       <c r="C23">
-        <v>0.5018965699233036</v>
+        <v>1.557238153917922</v>
       </c>
       <c r="D23">
-        <v>0.7129821231791595</v>
+        <v>0.8861746125381273</v>
       </c>
       <c r="E23">
-        <v>0.2960075369952122</v>
+        <v>0.4037612443118377</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5655156139336981</v>
+        <v>0.5073260944638207</v>
       </c>
       <c r="H23">
-        <v>0.6714865790688265</v>
+        <v>0.3038969878727897</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1584293038580569</v>
+        <v>0.2453358129329928</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.448912775965084</v>
+        <v>1.664149881114867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.816290093033103</v>
+        <v>5.105590751259854</v>
       </c>
       <c r="C24">
-        <v>0.4321394772967437</v>
+        <v>1.337327183715786</v>
       </c>
       <c r="D24">
-        <v>0.6892447867793123</v>
+        <v>0.7693279958920414</v>
       </c>
       <c r="E24">
-        <v>0.2846089716225961</v>
+        <v>0.348874936660863</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.566472030726743</v>
+        <v>0.4455145086296142</v>
       </c>
       <c r="H24">
-        <v>0.6802107596625149</v>
+        <v>0.288807049131492</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.151059262838757</v>
+        <v>0.210761824211076</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.468675248707314</v>
+        <v>1.500715437030721</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.530802123718274</v>
+        <v>4.17933303047414</v>
       </c>
       <c r="C25">
-        <v>0.3565055272806035</v>
+        <v>1.10184572027174</v>
       </c>
       <c r="D25">
-        <v>0.6649277972228447</v>
+        <v>0.6481096514284843</v>
       </c>
       <c r="E25">
-        <v>0.2728663491572334</v>
+        <v>0.2919406499320303</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.569872486040822</v>
+        <v>0.3882942185527867</v>
       </c>
       <c r="H25">
-        <v>0.6914123865399375</v>
+        <v>0.2776011040449191</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1434169020715146</v>
+        <v>0.1749052146379455</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.498717892768212</v>
+        <v>1.355038330017862</v>
       </c>
     </row>
   </sheetData>
